--- a/database/industries/darou/deshimi/cost/quarterly.xlsx
+++ b/database/industries/darou/deshimi/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deshimi\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635DAEB3-600E-4A5F-8B71-E4477BCD37D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دشیمی-شیمی‌ داروئی‌ داروپخش‌</t>
@@ -33,24 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -63,6 +46,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -151,9 +137,6 @@
   </si>
   <si>
     <t>نرخ موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -255,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +408,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -437,7 +420,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -484,6 +467,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -519,6 +519,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,17 +687,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -689,13 +706,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,13 +718,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -723,13 +730,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -738,13 +740,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -755,13 +752,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,13 +764,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -787,13 +774,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -814,23 +796,8 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -839,163 +806,98 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>219395</v>
+        <v>611031</v>
       </c>
       <c r="F10" s="9">
-        <v>237119</v>
+        <v>488675</v>
       </c>
       <c r="G10" s="9">
-        <v>266728</v>
+        <v>483673</v>
       </c>
       <c r="H10" s="9">
-        <v>245649</v>
+        <v>678134</v>
       </c>
       <c r="I10" s="9">
-        <v>350438</v>
-      </c>
-      <c r="J10" s="9">
-        <v>585615</v>
-      </c>
-      <c r="K10" s="9">
-        <v>611031</v>
-      </c>
-      <c r="L10" s="9">
-        <v>488675</v>
-      </c>
-      <c r="M10" s="9">
-        <v>483673</v>
-      </c>
-      <c r="N10" s="9">
-        <v>678134</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1744789</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>30017</v>
+        <v>36061</v>
       </c>
       <c r="F11" s="11">
-        <v>27621</v>
+        <v>45101</v>
       </c>
       <c r="G11" s="11">
-        <v>20824</v>
+        <v>63364</v>
       </c>
       <c r="H11" s="11">
-        <v>28723</v>
+        <v>62959</v>
       </c>
       <c r="I11" s="11">
-        <v>37743</v>
-      </c>
-      <c r="J11" s="11">
-        <v>37177</v>
-      </c>
-      <c r="K11" s="11">
-        <v>36061</v>
-      </c>
-      <c r="L11" s="11">
-        <v>45101</v>
-      </c>
-      <c r="M11" s="11">
-        <v>63364</v>
-      </c>
-      <c r="N11" s="11">
-        <v>62959</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>53399</v>
+        <v>125494</v>
       </c>
       <c r="F12" s="9">
-        <v>63989</v>
+        <v>221809</v>
       </c>
       <c r="G12" s="9">
-        <v>77784</v>
+        <v>195452</v>
       </c>
       <c r="H12" s="9">
-        <v>129750</v>
+        <v>188912</v>
       </c>
       <c r="I12" s="9">
-        <v>122017</v>
-      </c>
-      <c r="J12" s="9">
-        <v>121136</v>
-      </c>
-      <c r="K12" s="9">
-        <v>125494</v>
-      </c>
-      <c r="L12" s="9">
-        <v>221809</v>
-      </c>
-      <c r="M12" s="9">
-        <v>195452</v>
-      </c>
-      <c r="N12" s="9">
-        <v>188912</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>195352</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>302811</v>
+        <v>772586</v>
       </c>
       <c r="F13" s="13">
-        <v>328729</v>
+        <v>755585</v>
       </c>
       <c r="G13" s="13">
-        <v>365336</v>
+        <v>742489</v>
       </c>
       <c r="H13" s="13">
-        <v>404122</v>
+        <v>930005</v>
       </c>
       <c r="I13" s="13">
-        <v>510198</v>
-      </c>
-      <c r="J13" s="13">
-        <v>743928</v>
-      </c>
-      <c r="K13" s="13">
-        <v>772586</v>
-      </c>
-      <c r="L13" s="13">
-        <v>755585</v>
-      </c>
-      <c r="M13" s="13">
-        <v>742489</v>
-      </c>
-      <c r="N13" s="13">
-        <v>930005</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1998138</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1014,99 +916,54 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>302811</v>
+        <v>772586</v>
       </c>
       <c r="F15" s="13">
-        <v>328729</v>
+        <v>755585</v>
       </c>
       <c r="G15" s="13">
-        <v>365336</v>
+        <v>742489</v>
       </c>
       <c r="H15" s="13">
-        <v>404122</v>
+        <v>930005</v>
       </c>
       <c r="I15" s="13">
-        <v>510198</v>
-      </c>
-      <c r="J15" s="13">
-        <v>743928</v>
-      </c>
-      <c r="K15" s="13">
-        <v>772586</v>
-      </c>
-      <c r="L15" s="13">
-        <v>755585</v>
-      </c>
-      <c r="M15" s="13">
-        <v>742489</v>
-      </c>
-      <c r="N15" s="13">
-        <v>930005</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1998138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>19235</v>
+        <v>-17371</v>
       </c>
       <c r="F16" s="9">
-        <v>-8149</v>
+        <v>-65794</v>
       </c>
       <c r="G16" s="9">
-        <v>-6538</v>
+        <v>-45588</v>
       </c>
       <c r="H16" s="9">
-        <v>-137703</v>
+        <v>5558</v>
       </c>
       <c r="I16" s="9">
-        <v>27369</v>
-      </c>
-      <c r="J16" s="9">
-        <v>65835</v>
-      </c>
-      <c r="K16" s="9">
-        <v>-17371</v>
-      </c>
-      <c r="L16" s="9">
-        <v>-65794</v>
-      </c>
-      <c r="M16" s="9">
-        <v>-45588</v>
-      </c>
-      <c r="N16" s="9">
-        <v>5558</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>461095</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1125,173 +982,98 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>322046</v>
+        <v>755215</v>
       </c>
       <c r="F18" s="15">
-        <v>320580</v>
+        <v>689791</v>
       </c>
       <c r="G18" s="15">
-        <v>358798</v>
+        <v>696901</v>
       </c>
       <c r="H18" s="15">
-        <v>266419</v>
+        <v>935563</v>
       </c>
       <c r="I18" s="15">
-        <v>537567</v>
-      </c>
-      <c r="J18" s="15">
-        <v>809763</v>
-      </c>
-      <c r="K18" s="15">
-        <v>755215</v>
-      </c>
-      <c r="L18" s="15">
-        <v>689791</v>
-      </c>
-      <c r="M18" s="15">
-        <v>696901</v>
-      </c>
-      <c r="N18" s="15">
-        <v>935563</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2459233</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>80655</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>27100</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>812828</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>148132</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>812828</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>304435</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-69409</v>
+        <v>-27100</v>
       </c>
       <c r="F20" s="9">
-        <v>7594</v>
+        <v>-812828</v>
       </c>
       <c r="G20" s="9">
-        <v>11143</v>
+        <v>-907064</v>
       </c>
       <c r="H20" s="9">
-        <v>-97460</v>
+        <v>-304435</v>
       </c>
       <c r="I20" s="9">
-        <v>-219312</v>
-      </c>
-      <c r="J20" s="9">
-        <v>-247622</v>
-      </c>
-      <c r="K20" s="9">
-        <v>-27100</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-318794</v>
-      </c>
-      <c r="M20" s="9">
-        <v>-907064</v>
-      </c>
-      <c r="N20" s="9">
-        <v>-304435</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1315110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>333292</v>
+        <v>728115</v>
       </c>
       <c r="F21" s="13">
-        <v>328174</v>
+        <v>370997</v>
       </c>
       <c r="G21" s="13">
-        <v>369941</v>
+        <v>602665</v>
       </c>
       <c r="H21" s="13">
-        <v>168959</v>
+        <v>631128</v>
       </c>
       <c r="I21" s="13">
-        <v>466387</v>
-      </c>
-      <c r="J21" s="13">
-        <v>562141</v>
-      </c>
-      <c r="K21" s="13">
-        <v>728115</v>
-      </c>
-      <c r="L21" s="13">
-        <v>370997</v>
-      </c>
-      <c r="M21" s="13">
-        <v>602665</v>
-      </c>
-      <c r="N21" s="13">
-        <v>631128</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2355622</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1310,60 +1092,30 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>333292</v>
+        <v>728115</v>
       </c>
       <c r="F23" s="13">
-        <v>328174</v>
+        <v>370997</v>
       </c>
       <c r="G23" s="13">
-        <v>369941</v>
+        <v>602665</v>
       </c>
       <c r="H23" s="13">
-        <v>168959</v>
+        <v>631128</v>
       </c>
       <c r="I23" s="13">
-        <v>466387</v>
-      </c>
-      <c r="J23" s="13">
-        <v>562141</v>
-      </c>
-      <c r="K23" s="13">
-        <v>728115</v>
-      </c>
-      <c r="L23" s="13">
-        <v>370997</v>
-      </c>
-      <c r="M23" s="13">
-        <v>602665</v>
-      </c>
-      <c r="N23" s="13">
-        <v>631128</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2355622</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1372,13 +1124,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1387,13 +1134,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1402,15 +1144,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1429,23 +1166,8 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1454,89 +1176,54 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>1102023</v>
+        <v>1305325</v>
       </c>
       <c r="F29" s="9">
-        <v>981837</v>
+        <v>1873938</v>
       </c>
       <c r="G29" s="9">
-        <v>898000</v>
+        <v>1507312</v>
       </c>
       <c r="H29" s="9">
-        <v>1178773</v>
+        <v>1361373</v>
       </c>
       <c r="I29" s="9">
-        <v>997225</v>
-      </c>
-      <c r="J29" s="9">
-        <v>928196</v>
-      </c>
-      <c r="K29" s="9">
-        <v>1305325</v>
-      </c>
-      <c r="L29" s="9">
-        <v>1873938</v>
-      </c>
-      <c r="M29" s="9">
-        <v>1507312</v>
-      </c>
-      <c r="N29" s="9">
-        <v>1361373</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1230998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>1102023</v>
+        <v>1305325</v>
       </c>
       <c r="F30" s="13">
-        <v>981837</v>
+        <v>1873938</v>
       </c>
       <c r="G30" s="13">
-        <v>898000</v>
+        <v>1507312</v>
       </c>
       <c r="H30" s="13">
-        <v>1178773</v>
+        <v>1361373</v>
       </c>
       <c r="I30" s="13">
-        <v>997225</v>
-      </c>
-      <c r="J30" s="13">
-        <v>928196</v>
-      </c>
-      <c r="K30" s="13">
-        <v>1305325</v>
-      </c>
-      <c r="L30" s="13">
-        <v>1873938</v>
-      </c>
-      <c r="M30" s="13">
-        <v>1507312</v>
-      </c>
-      <c r="N30" s="13">
-        <v>1361373</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1230998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1545,13 +1232,8 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1560,13 +1242,8 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1575,15 +1252,10 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1602,23 +1274,8 @@
       <c r="I34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1627,89 +1284,54 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>340016</v>
+        <v>706944</v>
       </c>
       <c r="F36" s="9">
-        <v>411642</v>
+        <v>2441558</v>
       </c>
       <c r="G36" s="9">
-        <v>1222408</v>
+        <v>659591</v>
       </c>
       <c r="H36" s="9">
-        <v>655624</v>
+        <v>294901</v>
       </c>
       <c r="I36" s="9">
-        <v>478667</v>
-      </c>
-      <c r="J36" s="9">
-        <v>617536</v>
-      </c>
-      <c r="K36" s="9">
-        <v>706944</v>
-      </c>
-      <c r="L36" s="9">
-        <v>2441558</v>
-      </c>
-      <c r="M36" s="9">
-        <v>659591</v>
-      </c>
-      <c r="N36" s="9">
-        <v>294901</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>639074</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>340016</v>
+        <v>706944</v>
       </c>
       <c r="F37" s="13">
-        <v>411642</v>
+        <v>2441558</v>
       </c>
       <c r="G37" s="13">
-        <v>1222408</v>
+        <v>659591</v>
       </c>
       <c r="H37" s="13">
-        <v>655624</v>
+        <v>294901</v>
       </c>
       <c r="I37" s="13">
-        <v>478667</v>
-      </c>
-      <c r="J37" s="13">
-        <v>617536</v>
-      </c>
-      <c r="K37" s="13">
-        <v>706944</v>
-      </c>
-      <c r="L37" s="13">
-        <v>2441558</v>
-      </c>
-      <c r="M37" s="13">
-        <v>659591</v>
-      </c>
-      <c r="N37" s="13">
-        <v>294901</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>639074</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1718,13 +1340,8 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1733,13 +1350,8 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1748,15 +1360,10 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1775,23 +1382,8 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1800,89 +1392,54 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>460202</v>
+        <v>138331</v>
       </c>
       <c r="F43" s="9">
-        <v>495479</v>
+        <v>2808184</v>
       </c>
       <c r="G43" s="9">
-        <v>941635</v>
+        <v>805530</v>
       </c>
       <c r="H43" s="9">
-        <v>837172</v>
+        <v>425276</v>
       </c>
       <c r="I43" s="9">
-        <v>547696</v>
-      </c>
-      <c r="J43" s="9">
-        <v>240407</v>
-      </c>
-      <c r="K43" s="9">
-        <v>138331</v>
-      </c>
-      <c r="L43" s="9">
-        <v>2808184</v>
-      </c>
-      <c r="M43" s="9">
-        <v>805530</v>
-      </c>
-      <c r="N43" s="9">
-        <v>425276</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>697097</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>460202</v>
+        <v>138331</v>
       </c>
       <c r="F44" s="13">
-        <v>495479</v>
+        <v>2808184</v>
       </c>
       <c r="G44" s="13">
-        <v>941635</v>
+        <v>805530</v>
       </c>
       <c r="H44" s="13">
-        <v>837172</v>
+        <v>425276</v>
       </c>
       <c r="I44" s="13">
-        <v>547696</v>
-      </c>
-      <c r="J44" s="13">
-        <v>240407</v>
-      </c>
-      <c r="K44" s="13">
-        <v>138331</v>
-      </c>
-      <c r="L44" s="13">
-        <v>2808184</v>
-      </c>
-      <c r="M44" s="13">
-        <v>805530</v>
-      </c>
-      <c r="N44" s="13">
-        <v>425276</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>697097</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1891,13 +1448,8 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1906,13 +1458,8 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1921,15 +1468,10 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1948,23 +1490,8 @@
       <c r="I48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1973,89 +1500,54 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>981837</v>
+        <v>1873938</v>
       </c>
       <c r="F50" s="9">
-        <v>898000</v>
+        <v>1507312</v>
       </c>
       <c r="G50" s="9">
-        <v>1178773</v>
+        <v>1361373</v>
       </c>
       <c r="H50" s="9">
-        <v>997225</v>
+        <v>1230998</v>
       </c>
       <c r="I50" s="9">
-        <v>928196</v>
-      </c>
-      <c r="J50" s="9">
-        <v>1305325</v>
-      </c>
-      <c r="K50" s="9">
-        <v>1873938</v>
-      </c>
-      <c r="L50" s="9">
-        <v>1507312</v>
-      </c>
-      <c r="M50" s="9">
-        <v>1361373</v>
-      </c>
-      <c r="N50" s="9">
-        <v>1230998</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1172975</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>981837</v>
+        <v>1873938</v>
       </c>
       <c r="F51" s="13">
-        <v>898000</v>
+        <v>1507312</v>
       </c>
       <c r="G51" s="13">
-        <v>1178773</v>
+        <v>1361373</v>
       </c>
       <c r="H51" s="13">
-        <v>997225</v>
+        <v>1230998</v>
       </c>
       <c r="I51" s="13">
-        <v>928196</v>
-      </c>
-      <c r="J51" s="13">
-        <v>1305325</v>
-      </c>
-      <c r="K51" s="13">
-        <v>1873938</v>
-      </c>
-      <c r="L51" s="13">
-        <v>1507312</v>
-      </c>
-      <c r="M51" s="13">
-        <v>1361373</v>
-      </c>
-      <c r="N51" s="13">
-        <v>1230998</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1172975</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2064,13 +1556,8 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2079,13 +1566,8 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2094,15 +1576,10 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2121,23 +1598,8 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2146,89 +1608,54 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>288312</v>
+        <v>668471</v>
       </c>
       <c r="F57" s="9">
-        <v>304151</v>
+        <v>616057</v>
       </c>
       <c r="G57" s="9">
-        <v>249490</v>
+        <v>794193</v>
       </c>
       <c r="H57" s="9">
-        <v>389436</v>
+        <v>782832</v>
       </c>
       <c r="I57" s="9">
-        <v>501833</v>
-      </c>
-      <c r="J57" s="9">
-        <v>476267</v>
-      </c>
-      <c r="K57" s="9">
-        <v>668471</v>
-      </c>
-      <c r="L57" s="9">
-        <v>616057</v>
-      </c>
-      <c r="M57" s="9">
-        <v>794193</v>
-      </c>
-      <c r="N57" s="9">
-        <v>782832</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1161994</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>288312</v>
+        <v>668471</v>
       </c>
       <c r="F58" s="13">
-        <v>304151</v>
+        <v>616057</v>
       </c>
       <c r="G58" s="13">
-        <v>249490</v>
+        <v>794193</v>
       </c>
       <c r="H58" s="13">
-        <v>389436</v>
+        <v>782832</v>
       </c>
       <c r="I58" s="13">
-        <v>501833</v>
-      </c>
-      <c r="J58" s="13">
-        <v>476267</v>
-      </c>
-      <c r="K58" s="13">
-        <v>668471</v>
-      </c>
-      <c r="L58" s="13">
-        <v>616057</v>
-      </c>
-      <c r="M58" s="13">
-        <v>794193</v>
-      </c>
-      <c r="N58" s="13">
-        <v>782832</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1161994</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2237,13 +1664,8 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2252,13 +1674,8 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2267,15 +1684,10 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2294,23 +1706,8 @@
       <c r="I62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2319,89 +1716,54 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>235234</v>
+        <v>558617</v>
       </c>
       <c r="F64" s="9">
-        <v>182458</v>
+        <v>666811</v>
       </c>
       <c r="G64" s="9">
-        <v>406674</v>
+        <v>472312</v>
       </c>
       <c r="H64" s="9">
-        <v>358046</v>
+        <v>1057296</v>
       </c>
       <c r="I64" s="9">
-        <v>324872</v>
-      </c>
-      <c r="J64" s="9">
-        <v>777819</v>
-      </c>
-      <c r="K64" s="9">
-        <v>558617</v>
-      </c>
-      <c r="L64" s="9">
-        <v>666811</v>
-      </c>
-      <c r="M64" s="9">
-        <v>472312</v>
-      </c>
-      <c r="N64" s="9">
-        <v>1057296</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2266057</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>235234</v>
+        <v>558617</v>
       </c>
       <c r="F65" s="13">
-        <v>182458</v>
+        <v>666811</v>
       </c>
       <c r="G65" s="13">
-        <v>406674</v>
+        <v>472312</v>
       </c>
       <c r="H65" s="13">
-        <v>358046</v>
+        <v>1057296</v>
       </c>
       <c r="I65" s="13">
-        <v>324872</v>
-      </c>
-      <c r="J65" s="13">
-        <v>777819</v>
-      </c>
-      <c r="K65" s="13">
-        <v>558617</v>
-      </c>
-      <c r="L65" s="13">
-        <v>666811</v>
-      </c>
-      <c r="M65" s="13">
-        <v>472312</v>
-      </c>
-      <c r="N65" s="13">
-        <v>1057296</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2266057</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2410,13 +1772,8 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2425,13 +1782,8 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2440,15 +1792,10 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2467,23 +1814,8 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J69" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N69" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2492,89 +1824,54 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>219395</v>
+        <v>611031</v>
       </c>
       <c r="F71" s="9">
-        <v>237119</v>
+        <v>488675</v>
       </c>
       <c r="G71" s="9">
-        <v>266728</v>
+        <v>483673</v>
       </c>
       <c r="H71" s="9">
-        <v>245649</v>
+        <v>678134</v>
       </c>
       <c r="I71" s="9">
-        <v>350438</v>
-      </c>
-      <c r="J71" s="9">
-        <v>585615</v>
-      </c>
-      <c r="K71" s="9">
-        <v>611031</v>
-      </c>
-      <c r="L71" s="9">
-        <v>488675</v>
-      </c>
-      <c r="M71" s="9">
-        <v>483673</v>
-      </c>
-      <c r="N71" s="9">
-        <v>678134</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1744789</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>219395</v>
+        <v>611031</v>
       </c>
       <c r="F72" s="13">
-        <v>237119</v>
+        <v>488675</v>
       </c>
       <c r="G72" s="13">
-        <v>266728</v>
+        <v>483673</v>
       </c>
       <c r="H72" s="13">
-        <v>245649</v>
+        <v>678134</v>
       </c>
       <c r="I72" s="13">
-        <v>350438</v>
-      </c>
-      <c r="J72" s="13">
-        <v>585615</v>
-      </c>
-      <c r="K72" s="13">
-        <v>611031</v>
-      </c>
-      <c r="L72" s="13">
-        <v>488675</v>
-      </c>
-      <c r="M72" s="13">
-        <v>483673</v>
-      </c>
-      <c r="N72" s="13">
-        <v>678134</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1744789</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2583,13 +1880,8 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2598,13 +1890,8 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2613,15 +1900,10 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2640,23 +1922,8 @@
       <c r="I76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J76" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M76" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N76" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2665,89 +1932,54 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>304151</v>
+        <v>616057</v>
       </c>
       <c r="F78" s="9">
-        <v>249490</v>
+        <v>794193</v>
       </c>
       <c r="G78" s="9">
-        <v>389436</v>
+        <v>782832</v>
       </c>
       <c r="H78" s="9">
-        <v>501833</v>
+        <v>1161994</v>
       </c>
       <c r="I78" s="9">
-        <v>476267</v>
-      </c>
-      <c r="J78" s="9">
-        <v>668471</v>
-      </c>
-      <c r="K78" s="9">
-        <v>616057</v>
-      </c>
-      <c r="L78" s="9">
-        <v>794193</v>
-      </c>
-      <c r="M78" s="9">
-        <v>782832</v>
-      </c>
-      <c r="N78" s="9">
-        <v>1161994</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1683262</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>304151</v>
+        <v>616057</v>
       </c>
       <c r="F79" s="13">
-        <v>249490</v>
+        <v>794193</v>
       </c>
       <c r="G79" s="13">
-        <v>389436</v>
+        <v>782832</v>
       </c>
       <c r="H79" s="13">
-        <v>501833</v>
+        <v>1161994</v>
       </c>
       <c r="I79" s="13">
-        <v>476267</v>
-      </c>
-      <c r="J79" s="13">
-        <v>668471</v>
-      </c>
-      <c r="K79" s="13">
-        <v>616057</v>
-      </c>
-      <c r="L79" s="13">
-        <v>794193</v>
-      </c>
-      <c r="M79" s="13">
-        <v>782832</v>
-      </c>
-      <c r="N79" s="13">
-        <v>1161994</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1683262</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2756,13 +1988,8 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2771,13 +1998,8 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2786,15 +2008,10 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2813,23 +2030,8 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N83" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2838,52 +2040,32 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>261621</v>
+        <v>512111</v>
       </c>
       <c r="F85" s="9">
-        <v>309777</v>
+        <v>328750</v>
       </c>
       <c r="G85" s="9">
-        <v>277829</v>
+        <v>526894</v>
       </c>
       <c r="H85" s="9">
-        <v>330374</v>
+        <v>575031</v>
       </c>
       <c r="I85" s="9">
-        <v>503229</v>
-      </c>
-      <c r="J85" s="9">
-        <v>513110</v>
-      </c>
-      <c r="K85" s="9">
-        <v>512111</v>
-      </c>
-      <c r="L85" s="9">
-        <v>328750</v>
-      </c>
-      <c r="M85" s="9">
-        <v>526894</v>
-      </c>
-      <c r="N85" s="9">
-        <v>575031</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>943945</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2892,13 +2074,8 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2907,13 +2084,8 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2922,15 +2094,10 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2949,23 +2116,8 @@
       <c r="I89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M89" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N89" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2974,52 +2126,32 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>691832</v>
+        <v>790186</v>
       </c>
       <c r="F91" s="9">
-        <v>443244</v>
+        <v>273109</v>
       </c>
       <c r="G91" s="9">
-        <v>332683</v>
+        <v>716068</v>
       </c>
       <c r="H91" s="9">
-        <v>546115</v>
+        <v>3585257</v>
       </c>
       <c r="I91" s="9">
-        <v>678701</v>
-      </c>
-      <c r="J91" s="9">
-        <v>1259552</v>
-      </c>
-      <c r="K91" s="9">
-        <v>790186</v>
-      </c>
-      <c r="L91" s="9">
-        <v>273109</v>
-      </c>
-      <c r="M91" s="9">
-        <v>716068</v>
-      </c>
-      <c r="N91" s="9">
-        <v>3585257</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3545844</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3028,13 +2160,8 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3043,13 +2170,8 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3058,15 +2180,10 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-    </row>
-    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3085,23 +2202,8 @@
       <c r="I95" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J95" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L95" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M95" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N95" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3110,52 +2212,32 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>476736</v>
+        <v>4417166</v>
       </c>
       <c r="F97" s="9">
-        <v>478565</v>
+        <v>174018</v>
       </c>
       <c r="G97" s="9">
-        <v>283261</v>
+        <v>600441</v>
       </c>
       <c r="H97" s="9">
-        <v>293427</v>
+        <v>1594574</v>
       </c>
       <c r="I97" s="9">
-        <v>639840</v>
-      </c>
-      <c r="J97" s="9">
-        <v>2435932</v>
-      </c>
-      <c r="K97" s="9">
-        <v>4417166</v>
-      </c>
-      <c r="L97" s="9">
-        <v>174018</v>
-      </c>
-      <c r="M97" s="9">
-        <v>600441</v>
-      </c>
-      <c r="N97" s="9">
-        <v>1594574</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2502936</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3164,13 +2246,8 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3179,13 +2256,8 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3194,15 +2266,10 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3221,23 +2288,8 @@
       <c r="I101" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M101" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N101" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3246,52 +2298,32 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J103" s="9">
-        <v>512111</v>
-      </c>
-      <c r="K103" s="9">
+      <c r="E103" s="9">
         <v>328750</v>
       </c>
-      <c r="L103" s="9">
+      <c r="F103" s="9">
         <v>526894</v>
       </c>
-      <c r="M103" s="9">
+      <c r="G103" s="9">
         <v>575031</v>
       </c>
-      <c r="N103" s="9">
+      <c r="H103" s="9">
         <v>943945</v>
       </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I103" s="9">
+        <v>1435037</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3300,13 +2332,8 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3315,13 +2342,8 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3330,15 +2352,10 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3357,23 +2374,8 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J107" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L107" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M107" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N107" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3382,52 +2384,32 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>205</v>
+        <v>2677</v>
       </c>
       <c r="F109" s="9">
-        <v>156</v>
+        <v>2040</v>
       </c>
       <c r="G109" s="9">
-        <v>269</v>
+        <v>2940</v>
       </c>
       <c r="H109" s="9">
-        <v>1116</v>
+        <v>3434</v>
       </c>
       <c r="I109" s="9">
-        <v>387</v>
-      </c>
-      <c r="J109" s="9">
-        <v>859</v>
-      </c>
-      <c r="K109" s="9">
-        <v>2677</v>
-      </c>
-      <c r="L109" s="9">
-        <v>2040</v>
-      </c>
-      <c r="M109" s="9">
-        <v>2940</v>
-      </c>
-      <c r="N109" s="9">
-        <v>3434</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -3446,25 +2428,10 @@
       <c r="I110" s="11">
         <v>0</v>
       </c>
-      <c r="J110" s="11">
-        <v>0</v>
-      </c>
-      <c r="K110" s="11">
-        <v>0</v>
-      </c>
-      <c r="L110" s="11">
-        <v>0</v>
-      </c>
-      <c r="M110" s="11">
-        <v>0</v>
-      </c>
-      <c r="N110" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -3483,25 +2450,10 @@
       <c r="I111" s="9">
         <v>0</v>
       </c>
-      <c r="J111" s="9">
-        <v>0</v>
-      </c>
-      <c r="K111" s="9">
-        <v>0</v>
-      </c>
-      <c r="L111" s="9">
-        <v>0</v>
-      </c>
-      <c r="M111" s="9">
-        <v>0</v>
-      </c>
-      <c r="N111" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -3512,181 +2464,106 @@
         <v>0</v>
       </c>
       <c r="G112" s="11">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="H112" s="11">
-        <v>0</v>
+        <v>-104</v>
       </c>
       <c r="I112" s="11">
-        <v>0</v>
-      </c>
-      <c r="J112" s="11">
-        <v>0</v>
-      </c>
-      <c r="K112" s="11">
-        <v>0</v>
-      </c>
-      <c r="L112" s="11">
-        <v>0</v>
-      </c>
-      <c r="M112" s="11">
-        <v>104</v>
-      </c>
-      <c r="N112" s="11">
-        <v>-104</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>3921</v>
+        <v>9911</v>
       </c>
       <c r="F113" s="9">
-        <v>6039</v>
+        <v>11986</v>
       </c>
       <c r="G113" s="9">
-        <v>4751</v>
+        <v>7406</v>
       </c>
       <c r="H113" s="9">
-        <v>5969</v>
+        <v>-1199</v>
       </c>
       <c r="I113" s="9">
-        <v>9953</v>
-      </c>
-      <c r="J113" s="9">
-        <v>6072</v>
-      </c>
-      <c r="K113" s="9">
-        <v>9911</v>
-      </c>
-      <c r="L113" s="9">
-        <v>11986</v>
-      </c>
-      <c r="M113" s="9">
-        <v>7406</v>
-      </c>
-      <c r="N113" s="9">
-        <v>-1199</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33330</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>190</v>
+        <v>3039</v>
       </c>
       <c r="F114" s="11">
-        <v>1440</v>
+        <v>5227</v>
       </c>
       <c r="G114" s="11">
-        <v>1258</v>
+        <v>2747</v>
       </c>
       <c r="H114" s="11">
-        <v>1907</v>
+        <v>3528</v>
       </c>
       <c r="I114" s="11">
-        <v>1494</v>
-      </c>
-      <c r="J114" s="11">
-        <v>2276</v>
-      </c>
-      <c r="K114" s="11">
-        <v>3039</v>
-      </c>
-      <c r="L114" s="11">
-        <v>5227</v>
-      </c>
-      <c r="M114" s="11">
-        <v>2747</v>
-      </c>
-      <c r="N114" s="11">
-        <v>3528</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>4050</v>
+        <v>7583</v>
       </c>
       <c r="F115" s="9">
-        <v>4159</v>
+        <v>7733</v>
       </c>
       <c r="G115" s="9">
-        <v>4375</v>
+        <v>5347</v>
       </c>
       <c r="H115" s="9">
-        <v>5628</v>
+        <v>11000</v>
       </c>
       <c r="I115" s="9">
-        <v>7161</v>
-      </c>
-      <c r="J115" s="9">
-        <v>7631</v>
-      </c>
-      <c r="K115" s="9">
-        <v>7583</v>
-      </c>
-      <c r="L115" s="9">
-        <v>7733</v>
-      </c>
-      <c r="M115" s="9">
-        <v>5347</v>
-      </c>
-      <c r="N115" s="9">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8208</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>37467</v>
+        <v>51069</v>
       </c>
       <c r="F116" s="11">
-        <v>37701</v>
+        <v>80425</v>
       </c>
       <c r="G116" s="11">
-        <v>39302</v>
+        <v>116123</v>
       </c>
       <c r="H116" s="11">
-        <v>47966</v>
+        <v>6379</v>
       </c>
       <c r="I116" s="11">
-        <v>76245</v>
-      </c>
-      <c r="J116" s="11">
-        <v>52162</v>
-      </c>
-      <c r="K116" s="11">
-        <v>51069</v>
-      </c>
-      <c r="L116" s="11">
-        <v>80425</v>
-      </c>
-      <c r="M116" s="11">
-        <v>116123</v>
-      </c>
-      <c r="N116" s="11">
-        <v>6379</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>105326</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -3705,97 +2582,52 @@
       <c r="I117" s="9">
         <v>0</v>
       </c>
-      <c r="J117" s="9">
-        <v>0</v>
-      </c>
-      <c r="K117" s="9">
-        <v>0</v>
-      </c>
-      <c r="L117" s="9">
-        <v>0</v>
-      </c>
-      <c r="M117" s="9">
-        <v>0</v>
-      </c>
-      <c r="N117" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>7566</v>
+        <v>51215</v>
       </c>
       <c r="F118" s="11">
-        <v>14494</v>
+        <v>114398</v>
       </c>
       <c r="G118" s="11">
-        <v>27829</v>
+        <v>60785</v>
       </c>
       <c r="H118" s="11">
-        <v>67164</v>
+        <v>165874</v>
       </c>
       <c r="I118" s="11">
-        <v>26777</v>
-      </c>
-      <c r="J118" s="11">
-        <v>52136</v>
-      </c>
-      <c r="K118" s="11">
-        <v>51215</v>
-      </c>
-      <c r="L118" s="11">
-        <v>114398</v>
-      </c>
-      <c r="M118" s="11">
-        <v>60785</v>
-      </c>
-      <c r="N118" s="11">
-        <v>165874</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>41972</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>53399</v>
+        <v>125494</v>
       </c>
       <c r="F119" s="15">
-        <v>63989</v>
+        <v>221809</v>
       </c>
       <c r="G119" s="15">
-        <v>77784</v>
+        <v>195452</v>
       </c>
       <c r="H119" s="15">
-        <v>129750</v>
+        <v>188912</v>
       </c>
       <c r="I119" s="15">
-        <v>122017</v>
-      </c>
-      <c r="J119" s="15">
-        <v>121136</v>
-      </c>
-      <c r="K119" s="15">
-        <v>125494</v>
-      </c>
-      <c r="L119" s="15">
-        <v>221809</v>
-      </c>
-      <c r="M119" s="15">
-        <v>195452</v>
-      </c>
-      <c r="N119" s="15">
-        <v>188912</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>195352</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3804,13 +2636,8 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3819,13 +2646,8 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3834,15 +2656,10 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-    </row>
-    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3851,13 +2668,8 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3866,18 +2678,13 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -3885,18 +2692,13 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
@@ -3904,18 +2706,13 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
@@ -3923,128 +2720,123 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>

--- a/database/industries/darou/deshimi/cost/quarterly.xlsx
+++ b/database/industries/darou/deshimi/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deshimi\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deshimi\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635DAEB3-600E-4A5F-8B71-E4477BCD37D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC4686A-B38C-4645-837A-5F1D08A9AEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -137,6 +152,9 @@
   </si>
   <si>
     <t>نرخ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -688,16 +706,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I138"/>
+  <dimension ref="B1:N138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -706,8 +724,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -718,8 +741,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -730,8 +758,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -740,8 +773,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -752,8 +790,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -764,8 +807,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -774,8 +822,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -796,8 +849,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -806,98 +874,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>237119</v>
+      </c>
+      <c r="F10" s="9">
+        <v>266728</v>
+      </c>
+      <c r="G10" s="9">
+        <v>245649</v>
+      </c>
+      <c r="H10" s="9">
+        <v>350438</v>
+      </c>
+      <c r="I10" s="9">
+        <v>585615</v>
+      </c>
+      <c r="J10" s="9">
         <v>611031</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>488675</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>483673</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>678134</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>1744789</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>27621</v>
+      </c>
+      <c r="F11" s="11">
+        <v>20824</v>
+      </c>
+      <c r="G11" s="11">
+        <v>28723</v>
+      </c>
+      <c r="H11" s="11">
+        <v>37743</v>
+      </c>
+      <c r="I11" s="11">
+        <v>37177</v>
+      </c>
+      <c r="J11" s="11">
         <v>36061</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>45101</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>63364</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>62959</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>57997</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>63989</v>
+      </c>
+      <c r="F12" s="9">
+        <v>77784</v>
+      </c>
+      <c r="G12" s="9">
+        <v>129750</v>
+      </c>
+      <c r="H12" s="9">
+        <v>122017</v>
+      </c>
+      <c r="I12" s="9">
+        <v>121136</v>
+      </c>
+      <c r="J12" s="9">
         <v>125494</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>221809</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>195452</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>188912</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>195352</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>328729</v>
+      </c>
+      <c r="F13" s="13">
+        <v>365336</v>
+      </c>
+      <c r="G13" s="13">
+        <v>404122</v>
+      </c>
+      <c r="H13" s="13">
+        <v>510198</v>
+      </c>
+      <c r="I13" s="13">
+        <v>743928</v>
+      </c>
+      <c r="J13" s="13">
         <v>772586</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>755585</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>742489</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>930005</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>1998138</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -916,54 +1049,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>328729</v>
+      </c>
+      <c r="F15" s="13">
+        <v>365336</v>
+      </c>
+      <c r="G15" s="13">
+        <v>404122</v>
+      </c>
+      <c r="H15" s="13">
+        <v>510198</v>
+      </c>
+      <c r="I15" s="13">
+        <v>743928</v>
+      </c>
+      <c r="J15" s="13">
         <v>772586</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>755585</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>742489</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>930005</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>1998138</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-8149</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-6538</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-137703</v>
+      </c>
+      <c r="H16" s="9">
+        <v>27369</v>
+      </c>
+      <c r="I16" s="9">
+        <v>65835</v>
+      </c>
+      <c r="J16" s="9">
         <v>-17371</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-65794</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-45588</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>5558</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>461095</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -982,32 +1160,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>320580</v>
+      </c>
+      <c r="F18" s="15">
+        <v>358798</v>
+      </c>
+      <c r="G18" s="15">
+        <v>266419</v>
+      </c>
+      <c r="H18" s="15">
+        <v>537567</v>
+      </c>
+      <c r="I18" s="15">
+        <v>809763</v>
+      </c>
+      <c r="J18" s="15">
         <v>755215</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>689791</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>696901</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>935563</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>2459233</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1015,65 +1223,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>148132</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>27100</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>812828</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
         <v>304435</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>7594</v>
+      </c>
+      <c r="F20" s="9">
+        <v>11143</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-97460</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-219312</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-247622</v>
+      </c>
+      <c r="J20" s="9">
         <v>-27100</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-812828</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-907064</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-304435</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-1315110</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>328174</v>
+      </c>
+      <c r="F21" s="13">
+        <v>369941</v>
+      </c>
+      <c r="G21" s="13">
+        <v>168959</v>
+      </c>
+      <c r="H21" s="13">
+        <v>466387</v>
+      </c>
+      <c r="I21" s="13">
+        <v>562141</v>
+      </c>
+      <c r="J21" s="13">
         <v>728115</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>370997</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>602665</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>631128</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>2355622</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1092,30 +1345,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>328174</v>
+      </c>
+      <c r="F23" s="13">
+        <v>369941</v>
+      </c>
+      <c r="G23" s="13">
+        <v>168959</v>
+      </c>
+      <c r="H23" s="13">
+        <v>466387</v>
+      </c>
+      <c r="I23" s="13">
+        <v>562141</v>
+      </c>
+      <c r="J23" s="13">
         <v>728115</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>370997</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>602665</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>631128</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>2355622</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1124,8 +1407,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1134,8 +1422,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1144,10 +1437,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1166,8 +1464,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1176,54 +1489,89 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>981837</v>
+      </c>
+      <c r="F29" s="9">
+        <v>898000</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1178773</v>
+      </c>
+      <c r="H29" s="9">
+        <v>997225</v>
+      </c>
+      <c r="I29" s="9">
+        <v>928196</v>
+      </c>
+      <c r="J29" s="9">
         <v>1305325</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>1873938</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>1507312</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>1361373</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>1230998</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
+        <v>981837</v>
+      </c>
+      <c r="F30" s="13">
+        <v>898000</v>
+      </c>
+      <c r="G30" s="13">
+        <v>1178773</v>
+      </c>
+      <c r="H30" s="13">
+        <v>997225</v>
+      </c>
+      <c r="I30" s="13">
+        <v>928196</v>
+      </c>
+      <c r="J30" s="13">
         <v>1305325</v>
       </c>
-      <c r="F30" s="13">
+      <c r="K30" s="13">
         <v>1873938</v>
       </c>
-      <c r="G30" s="13">
+      <c r="L30" s="13">
         <v>1507312</v>
       </c>
-      <c r="H30" s="13">
+      <c r="M30" s="13">
         <v>1361373</v>
       </c>
-      <c r="I30" s="13">
+      <c r="N30" s="13">
         <v>1230998</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1232,8 +1580,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1242,8 +1595,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1252,10 +1610,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1274,8 +1637,23 @@
       <c r="I34" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1284,54 +1662,89 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
+        <v>411642</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1222408</v>
+      </c>
+      <c r="G36" s="9">
+        <v>655624</v>
+      </c>
+      <c r="H36" s="9">
+        <v>478667</v>
+      </c>
+      <c r="I36" s="9">
+        <v>617536</v>
+      </c>
+      <c r="J36" s="9">
         <v>706944</v>
       </c>
-      <c r="F36" s="9">
+      <c r="K36" s="9">
         <v>2441558</v>
       </c>
-      <c r="G36" s="9">
+      <c r="L36" s="9">
         <v>659591</v>
       </c>
-      <c r="H36" s="9">
+      <c r="M36" s="9">
         <v>294901</v>
       </c>
-      <c r="I36" s="9">
+      <c r="N36" s="9">
         <v>639074</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
+        <v>411642</v>
+      </c>
+      <c r="F37" s="13">
+        <v>1222408</v>
+      </c>
+      <c r="G37" s="13">
+        <v>655624</v>
+      </c>
+      <c r="H37" s="13">
+        <v>478667</v>
+      </c>
+      <c r="I37" s="13">
+        <v>617536</v>
+      </c>
+      <c r="J37" s="13">
         <v>706944</v>
       </c>
-      <c r="F37" s="13">
+      <c r="K37" s="13">
         <v>2441558</v>
       </c>
-      <c r="G37" s="13">
+      <c r="L37" s="13">
         <v>659591</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>294901</v>
       </c>
-      <c r="I37" s="13">
+      <c r="N37" s="13">
         <v>639074</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1340,8 +1753,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1350,8 +1768,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1360,10 +1783,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1382,8 +1810,23 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1392,54 +1835,89 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>495479</v>
+      </c>
+      <c r="F43" s="9">
+        <v>941635</v>
+      </c>
+      <c r="G43" s="9">
+        <v>837172</v>
+      </c>
+      <c r="H43" s="9">
+        <v>547696</v>
+      </c>
+      <c r="I43" s="9">
+        <v>240407</v>
+      </c>
+      <c r="J43" s="9">
         <v>138331</v>
       </c>
-      <c r="F43" s="9">
+      <c r="K43" s="9">
         <v>2808184</v>
       </c>
-      <c r="G43" s="9">
+      <c r="L43" s="9">
         <v>805530</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>425276</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>697097</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
+        <v>495479</v>
+      </c>
+      <c r="F44" s="13">
+        <v>941635</v>
+      </c>
+      <c r="G44" s="13">
+        <v>837172</v>
+      </c>
+      <c r="H44" s="13">
+        <v>547696</v>
+      </c>
+      <c r="I44" s="13">
+        <v>240407</v>
+      </c>
+      <c r="J44" s="13">
         <v>138331</v>
       </c>
-      <c r="F44" s="13">
+      <c r="K44" s="13">
         <v>2808184</v>
       </c>
-      <c r="G44" s="13">
+      <c r="L44" s="13">
         <v>805530</v>
       </c>
-      <c r="H44" s="13">
+      <c r="M44" s="13">
         <v>425276</v>
       </c>
-      <c r="I44" s="13">
+      <c r="N44" s="13">
         <v>697097</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1448,8 +1926,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1458,8 +1941,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1468,10 +1956,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1490,8 +1983,23 @@
       <c r="I48" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1500,54 +2008,89 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>898000</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1178773</v>
+      </c>
+      <c r="G50" s="9">
+        <v>997225</v>
+      </c>
+      <c r="H50" s="9">
+        <v>928196</v>
+      </c>
+      <c r="I50" s="9">
+        <v>1305325</v>
+      </c>
+      <c r="J50" s="9">
         <v>1873938</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>1507312</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>1361373</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>1230998</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>1172975</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
+        <v>898000</v>
+      </c>
+      <c r="F51" s="13">
+        <v>1178773</v>
+      </c>
+      <c r="G51" s="13">
+        <v>997225</v>
+      </c>
+      <c r="H51" s="13">
+        <v>928196</v>
+      </c>
+      <c r="I51" s="13">
+        <v>1305325</v>
+      </c>
+      <c r="J51" s="13">
         <v>1873938</v>
       </c>
-      <c r="F51" s="13">
+      <c r="K51" s="13">
         <v>1507312</v>
       </c>
-      <c r="G51" s="13">
+      <c r="L51" s="13">
         <v>1361373</v>
       </c>
-      <c r="H51" s="13">
+      <c r="M51" s="13">
         <v>1230998</v>
       </c>
-      <c r="I51" s="13">
+      <c r="N51" s="13">
         <v>1172975</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1556,8 +2099,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1566,8 +2114,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1576,10 +2129,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1598,8 +2156,23 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1608,54 +2181,89 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>304151</v>
+      </c>
+      <c r="F57" s="9">
+        <v>249490</v>
+      </c>
+      <c r="G57" s="9">
+        <v>389436</v>
+      </c>
+      <c r="H57" s="9">
+        <v>501833</v>
+      </c>
+      <c r="I57" s="9">
+        <v>476267</v>
+      </c>
+      <c r="J57" s="9">
         <v>668471</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>616057</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>794193</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>782832</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>1161994</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
+        <v>304151</v>
+      </c>
+      <c r="F58" s="13">
+        <v>249490</v>
+      </c>
+      <c r="G58" s="13">
+        <v>389436</v>
+      </c>
+      <c r="H58" s="13">
+        <v>501833</v>
+      </c>
+      <c r="I58" s="13">
+        <v>476267</v>
+      </c>
+      <c r="J58" s="13">
         <v>668471</v>
       </c>
-      <c r="F58" s="13">
+      <c r="K58" s="13">
         <v>616057</v>
       </c>
-      <c r="G58" s="13">
+      <c r="L58" s="13">
         <v>794193</v>
       </c>
-      <c r="H58" s="13">
+      <c r="M58" s="13">
         <v>782832</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>1161994</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1664,8 +2272,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1674,8 +2287,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1684,10 +2302,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1706,8 +2329,23 @@
       <c r="I62" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1716,54 +2354,89 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>182458</v>
+      </c>
+      <c r="F64" s="9">
+        <v>406674</v>
+      </c>
+      <c r="G64" s="9">
+        <v>358046</v>
+      </c>
+      <c r="H64" s="9">
+        <v>324872</v>
+      </c>
+      <c r="I64" s="9">
+        <v>777819</v>
+      </c>
+      <c r="J64" s="9">
         <v>558617</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>666811</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>472312</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>1057296</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>2266057</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
+        <v>182458</v>
+      </c>
+      <c r="F65" s="13">
+        <v>406674</v>
+      </c>
+      <c r="G65" s="13">
+        <v>358046</v>
+      </c>
+      <c r="H65" s="13">
+        <v>324872</v>
+      </c>
+      <c r="I65" s="13">
+        <v>777819</v>
+      </c>
+      <c r="J65" s="13">
         <v>558617</v>
       </c>
-      <c r="F65" s="13">
+      <c r="K65" s="13">
         <v>666811</v>
       </c>
-      <c r="G65" s="13">
+      <c r="L65" s="13">
         <v>472312</v>
       </c>
-      <c r="H65" s="13">
+      <c r="M65" s="13">
         <v>1057296</v>
       </c>
-      <c r="I65" s="13">
+      <c r="N65" s="13">
         <v>2266057</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1772,8 +2445,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1782,8 +2460,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1792,10 +2475,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1814,8 +2502,23 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1824,54 +2527,89 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>237119</v>
+      </c>
+      <c r="F71" s="9">
+        <v>266728</v>
+      </c>
+      <c r="G71" s="9">
+        <v>245649</v>
+      </c>
+      <c r="H71" s="9">
+        <v>350438</v>
+      </c>
+      <c r="I71" s="9">
+        <v>585615</v>
+      </c>
+      <c r="J71" s="9">
         <v>611031</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>488675</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>483673</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>678134</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>1744789</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
+        <v>237119</v>
+      </c>
+      <c r="F72" s="13">
+        <v>266728</v>
+      </c>
+      <c r="G72" s="13">
+        <v>245649</v>
+      </c>
+      <c r="H72" s="13">
+        <v>350438</v>
+      </c>
+      <c r="I72" s="13">
+        <v>585615</v>
+      </c>
+      <c r="J72" s="13">
         <v>611031</v>
       </c>
-      <c r="F72" s="13">
+      <c r="K72" s="13">
         <v>488675</v>
       </c>
-      <c r="G72" s="13">
+      <c r="L72" s="13">
         <v>483673</v>
       </c>
-      <c r="H72" s="13">
+      <c r="M72" s="13">
         <v>678134</v>
       </c>
-      <c r="I72" s="13">
+      <c r="N72" s="13">
         <v>1744789</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1880,8 +2618,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1890,8 +2633,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1900,10 +2648,15 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -1922,8 +2675,23 @@
       <c r="I76" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1932,54 +2700,89 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
+        <v>249490</v>
+      </c>
+      <c r="F78" s="9">
+        <v>389436</v>
+      </c>
+      <c r="G78" s="9">
+        <v>501833</v>
+      </c>
+      <c r="H78" s="9">
+        <v>476267</v>
+      </c>
+      <c r="I78" s="9">
+        <v>668471</v>
+      </c>
+      <c r="J78" s="9">
         <v>616057</v>
       </c>
-      <c r="F78" s="9">
+      <c r="K78" s="9">
         <v>794193</v>
       </c>
-      <c r="G78" s="9">
+      <c r="L78" s="9">
         <v>782832</v>
       </c>
-      <c r="H78" s="9">
+      <c r="M78" s="9">
         <v>1161994</v>
       </c>
-      <c r="I78" s="9">
+      <c r="N78" s="9">
         <v>1683262</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
+        <v>249490</v>
+      </c>
+      <c r="F79" s="13">
+        <v>389436</v>
+      </c>
+      <c r="G79" s="13">
+        <v>501833</v>
+      </c>
+      <c r="H79" s="13">
+        <v>476267</v>
+      </c>
+      <c r="I79" s="13">
+        <v>668471</v>
+      </c>
+      <c r="J79" s="13">
         <v>616057</v>
       </c>
-      <c r="F79" s="13">
+      <c r="K79" s="13">
         <v>794193</v>
       </c>
-      <c r="G79" s="13">
+      <c r="L79" s="13">
         <v>782832</v>
       </c>
-      <c r="H79" s="13">
+      <c r="M79" s="13">
         <v>1161994</v>
       </c>
-      <c r="I79" s="13">
+      <c r="N79" s="13">
         <v>1683262</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1988,8 +2791,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1998,8 +2806,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2008,10 +2821,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2030,8 +2848,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2040,32 +2873,52 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>309777</v>
+      </c>
+      <c r="F85" s="9">
+        <v>277829</v>
+      </c>
+      <c r="G85" s="9">
+        <v>330374</v>
+      </c>
+      <c r="H85" s="9">
+        <v>503229</v>
+      </c>
+      <c r="I85" s="9">
+        <v>513110</v>
+      </c>
+      <c r="J85" s="9">
         <v>512111</v>
       </c>
-      <c r="F85" s="9">
+      <c r="K85" s="9">
         <v>328750</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>526894</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>575031</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>943945</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2074,8 +2927,13 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2084,8 +2942,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2094,10 +2957,15 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2116,8 +2984,23 @@
       <c r="I89" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2126,32 +3009,52 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>443244</v>
+      </c>
+      <c r="F91" s="9">
+        <v>332683</v>
+      </c>
+      <c r="G91" s="9">
+        <v>546115</v>
+      </c>
+      <c r="H91" s="9">
+        <v>678701</v>
+      </c>
+      <c r="I91" s="9">
+        <v>1259552</v>
+      </c>
+      <c r="J91" s="9">
         <v>790186</v>
       </c>
-      <c r="F91" s="9">
+      <c r="K91" s="9">
         <v>273109</v>
       </c>
-      <c r="G91" s="9">
+      <c r="L91" s="9">
         <v>716068</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>3585257</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>3545844</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2160,8 +3063,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2170,8 +3078,13 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2180,10 +3093,15 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2202,8 +3120,23 @@
       <c r="I95" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2212,32 +3145,52 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>478565</v>
+      </c>
+      <c r="F97" s="9">
+        <v>283261</v>
+      </c>
+      <c r="G97" s="9">
+        <v>293427</v>
+      </c>
+      <c r="H97" s="9">
+        <v>639840</v>
+      </c>
+      <c r="I97" s="9">
+        <v>2435932</v>
+      </c>
+      <c r="J97" s="9">
         <v>4417166</v>
       </c>
-      <c r="F97" s="9">
+      <c r="K97" s="9">
         <v>174018</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>600441</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>1594574</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>2502936</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2246,8 +3199,13 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2256,8 +3214,13 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2266,10 +3229,15 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2288,8 +3256,23 @@
       <c r="I101" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2298,32 +3281,52 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9">
+      <c r="E103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I103" s="9">
+        <v>512111</v>
+      </c>
+      <c r="J103" s="9">
         <v>328750</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>526894</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>575031</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>943945</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>1435037</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2332,8 +3335,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2342,8 +3350,13 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2352,10 +3365,15 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2374,8 +3392,23 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2384,32 +3417,52 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
+        <v>156</v>
+      </c>
+      <c r="F109" s="9">
+        <v>269</v>
+      </c>
+      <c r="G109" s="9">
+        <v>1116</v>
+      </c>
+      <c r="H109" s="9">
+        <v>387</v>
+      </c>
+      <c r="I109" s="9">
+        <v>859</v>
+      </c>
+      <c r="J109" s="9">
         <v>2677</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>2040</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>2940</v>
       </c>
-      <c r="H109" s="9">
+      <c r="M109" s="9">
         <v>3434</v>
       </c>
-      <c r="I109" s="9">
+      <c r="N109" s="9">
         <v>3432</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2428,10 +3481,25 @@
       <c r="I110" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="11">
+        <v>0</v>
+      </c>
+      <c r="K110" s="11">
+        <v>0</v>
+      </c>
+      <c r="L110" s="11">
+        <v>0</v>
+      </c>
+      <c r="M110" s="11">
+        <v>0</v>
+      </c>
+      <c r="N110" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -2450,10 +3518,25 @@
       <c r="I111" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="9">
+        <v>0</v>
+      </c>
+      <c r="K111" s="9">
+        <v>0</v>
+      </c>
+      <c r="L111" s="9">
+        <v>0</v>
+      </c>
+      <c r="M111" s="9">
+        <v>0</v>
+      </c>
+      <c r="N111" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2464,106 +3547,181 @@
         <v>0</v>
       </c>
       <c r="G112" s="11">
+        <v>0</v>
+      </c>
+      <c r="H112" s="11">
+        <v>0</v>
+      </c>
+      <c r="I112" s="11">
+        <v>0</v>
+      </c>
+      <c r="J112" s="11">
+        <v>0</v>
+      </c>
+      <c r="K112" s="11">
+        <v>0</v>
+      </c>
+      <c r="L112" s="11">
         <v>104</v>
       </c>
-      <c r="H112" s="11">
+      <c r="M112" s="11">
         <v>-104</v>
       </c>
-      <c r="I112" s="11">
+      <c r="N112" s="11">
         <v>241</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
+        <v>6039</v>
+      </c>
+      <c r="F113" s="9">
+        <v>4751</v>
+      </c>
+      <c r="G113" s="9">
+        <v>5969</v>
+      </c>
+      <c r="H113" s="9">
+        <v>9953</v>
+      </c>
+      <c r="I113" s="9">
+        <v>6072</v>
+      </c>
+      <c r="J113" s="9">
         <v>9911</v>
       </c>
-      <c r="F113" s="9">
+      <c r="K113" s="9">
         <v>11986</v>
       </c>
-      <c r="G113" s="9">
+      <c r="L113" s="9">
         <v>7406</v>
       </c>
-      <c r="H113" s="9">
+      <c r="M113" s="9">
         <v>-1199</v>
       </c>
-      <c r="I113" s="9">
+      <c r="N113" s="9">
         <v>33330</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
+        <v>1440</v>
+      </c>
+      <c r="F114" s="11">
+        <v>1258</v>
+      </c>
+      <c r="G114" s="11">
+        <v>1907</v>
+      </c>
+      <c r="H114" s="11">
+        <v>1494</v>
+      </c>
+      <c r="I114" s="11">
+        <v>2276</v>
+      </c>
+      <c r="J114" s="11">
         <v>3039</v>
       </c>
-      <c r="F114" s="11">
+      <c r="K114" s="11">
         <v>5227</v>
       </c>
-      <c r="G114" s="11">
+      <c r="L114" s="11">
         <v>2747</v>
       </c>
-      <c r="H114" s="11">
+      <c r="M114" s="11">
         <v>3528</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>2843</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>4159</v>
+      </c>
+      <c r="F115" s="9">
+        <v>4375</v>
+      </c>
+      <c r="G115" s="9">
+        <v>5628</v>
+      </c>
+      <c r="H115" s="9">
+        <v>7161</v>
+      </c>
+      <c r="I115" s="9">
+        <v>7631</v>
+      </c>
+      <c r="J115" s="9">
         <v>7583</v>
       </c>
-      <c r="F115" s="9">
+      <c r="K115" s="9">
         <v>7733</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>5347</v>
       </c>
-      <c r="H115" s="9">
+      <c r="M115" s="9">
         <v>11000</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>8208</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>37701</v>
+      </c>
+      <c r="F116" s="11">
+        <v>39302</v>
+      </c>
+      <c r="G116" s="11">
+        <v>47966</v>
+      </c>
+      <c r="H116" s="11">
+        <v>76245</v>
+      </c>
+      <c r="I116" s="11">
+        <v>52162</v>
+      </c>
+      <c r="J116" s="11">
         <v>51069</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>80425</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>116123</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>6379</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>105326</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -2582,52 +3740,97 @@
       <c r="I117" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>14494</v>
+      </c>
+      <c r="F118" s="11">
+        <v>27829</v>
+      </c>
+      <c r="G118" s="11">
+        <v>67164</v>
+      </c>
+      <c r="H118" s="11">
+        <v>26777</v>
+      </c>
+      <c r="I118" s="11">
+        <v>52136</v>
+      </c>
+      <c r="J118" s="11">
         <v>51215</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>114398</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>60785</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>165874</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>41972</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
+        <v>63989</v>
+      </c>
+      <c r="F119" s="15">
+        <v>77784</v>
+      </c>
+      <c r="G119" s="15">
+        <v>129750</v>
+      </c>
+      <c r="H119" s="15">
+        <v>122017</v>
+      </c>
+      <c r="I119" s="15">
+        <v>121136</v>
+      </c>
+      <c r="J119" s="15">
         <v>125494</v>
       </c>
-      <c r="F119" s="15">
+      <c r="K119" s="15">
         <v>221809</v>
       </c>
-      <c r="G119" s="15">
+      <c r="L119" s="15">
         <v>195452</v>
       </c>
-      <c r="H119" s="15">
+      <c r="M119" s="15">
         <v>188912</v>
       </c>
-      <c r="I119" s="15">
+      <c r="N119" s="15">
         <v>195352</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2636,8 +3839,13 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2646,8 +3854,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2656,10 +3869,15 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -2668,8 +3886,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2678,13 +3901,18 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -2692,13 +3920,18 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
@@ -2706,13 +3939,18 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
@@ -2720,123 +3958,128 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>

--- a/database/industries/darou/deshimi/cost/quarterly.xlsx
+++ b/database/industries/darou/deshimi/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deshimi\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deshimi\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC4686A-B38C-4645-837A-5F1D08A9AEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD81EDC9-EA2F-47F3-9BA0-5E82BDF809E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -710,12 +710,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -730,7 +730,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -779,7 +779,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -796,7 +796,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -828,7 +828,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -865,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -880,155 +880,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>237119</v>
+        <v>266728</v>
       </c>
       <c r="F10" s="9">
-        <v>266728</v>
+        <v>245649</v>
       </c>
       <c r="G10" s="9">
-        <v>245649</v>
+        <v>350438</v>
       </c>
       <c r="H10" s="9">
-        <v>350438</v>
+        <v>585615</v>
       </c>
       <c r="I10" s="9">
-        <v>585615</v>
+        <v>611031</v>
       </c>
       <c r="J10" s="9">
-        <v>611031</v>
+        <v>481374</v>
       </c>
       <c r="K10" s="9">
-        <v>488675</v>
+        <v>483673</v>
       </c>
       <c r="L10" s="9">
-        <v>483673</v>
+        <v>678134</v>
       </c>
       <c r="M10" s="9">
-        <v>678134</v>
+        <v>1744789</v>
       </c>
       <c r="N10" s="9">
-        <v>1744789</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3103074</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>27621</v>
+        <v>20824</v>
       </c>
       <c r="F11" s="11">
-        <v>20824</v>
+        <v>28723</v>
       </c>
       <c r="G11" s="11">
-        <v>28723</v>
+        <v>37743</v>
       </c>
       <c r="H11" s="11">
-        <v>37743</v>
+        <v>37177</v>
       </c>
       <c r="I11" s="11">
-        <v>37177</v>
+        <v>36061</v>
       </c>
       <c r="J11" s="11">
-        <v>36061</v>
+        <v>45101</v>
       </c>
       <c r="K11" s="11">
-        <v>45101</v>
+        <v>63364</v>
       </c>
       <c r="L11" s="11">
-        <v>63364</v>
+        <v>62959</v>
       </c>
       <c r="M11" s="11">
-        <v>62959</v>
+        <v>57997</v>
       </c>
       <c r="N11" s="11">
-        <v>57997</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>55242</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>63989</v>
+        <v>77784</v>
       </c>
       <c r="F12" s="9">
-        <v>77784</v>
+        <v>129750</v>
       </c>
       <c r="G12" s="9">
-        <v>129750</v>
+        <v>122017</v>
       </c>
       <c r="H12" s="9">
-        <v>122017</v>
+        <v>121136</v>
       </c>
       <c r="I12" s="9">
-        <v>121136</v>
+        <v>125494</v>
       </c>
       <c r="J12" s="9">
-        <v>125494</v>
+        <v>221809</v>
       </c>
       <c r="K12" s="9">
-        <v>221809</v>
+        <v>195452</v>
       </c>
       <c r="L12" s="9">
-        <v>195452</v>
+        <v>188912</v>
       </c>
       <c r="M12" s="9">
-        <v>188912</v>
+        <v>195352</v>
       </c>
       <c r="N12" s="9">
-        <v>195352</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>250091</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>328729</v>
+        <v>365336</v>
       </c>
       <c r="F13" s="13">
-        <v>365336</v>
+        <v>404122</v>
       </c>
       <c r="G13" s="13">
-        <v>404122</v>
+        <v>510198</v>
       </c>
       <c r="H13" s="13">
-        <v>510198</v>
+        <v>743928</v>
       </c>
       <c r="I13" s="13">
-        <v>743928</v>
+        <v>772586</v>
       </c>
       <c r="J13" s="13">
-        <v>772586</v>
+        <v>748284</v>
       </c>
       <c r="K13" s="13">
-        <v>755585</v>
+        <v>742489</v>
       </c>
       <c r="L13" s="13">
-        <v>742489</v>
+        <v>930005</v>
       </c>
       <c r="M13" s="13">
-        <v>930005</v>
+        <v>1998138</v>
       </c>
       <c r="N13" s="13">
-        <v>1998138</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3408407</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1065,81 +1065,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>328729</v>
+        <v>365336</v>
       </c>
       <c r="F15" s="13">
-        <v>365336</v>
+        <v>404122</v>
       </c>
       <c r="G15" s="13">
-        <v>404122</v>
+        <v>510198</v>
       </c>
       <c r="H15" s="13">
-        <v>510198</v>
+        <v>743928</v>
       </c>
       <c r="I15" s="13">
-        <v>743928</v>
+        <v>772586</v>
       </c>
       <c r="J15" s="13">
-        <v>772586</v>
+        <v>748284</v>
       </c>
       <c r="K15" s="13">
-        <v>755585</v>
+        <v>742489</v>
       </c>
       <c r="L15" s="13">
-        <v>742489</v>
+        <v>930005</v>
       </c>
       <c r="M15" s="13">
-        <v>930005</v>
+        <v>1998138</v>
       </c>
       <c r="N15" s="13">
-        <v>1998138</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3408407</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-8149</v>
+        <v>-6538</v>
       </c>
       <c r="F16" s="9">
-        <v>-6538</v>
+        <v>-137703</v>
       </c>
       <c r="G16" s="9">
-        <v>-137703</v>
+        <v>27369</v>
       </c>
       <c r="H16" s="9">
-        <v>27369</v>
+        <v>65835</v>
       </c>
       <c r="I16" s="9">
-        <v>65835</v>
+        <v>-17371</v>
       </c>
       <c r="J16" s="9">
-        <v>-17371</v>
+        <v>-58493</v>
       </c>
       <c r="K16" s="9">
-        <v>-65794</v>
+        <v>-45588</v>
       </c>
       <c r="L16" s="9">
-        <v>-45588</v>
+        <v>5558</v>
       </c>
       <c r="M16" s="9">
-        <v>5558</v>
+        <v>461095</v>
       </c>
       <c r="N16" s="9">
-        <v>461095</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-555976</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1176,44 +1176,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>320580</v>
+        <v>358798</v>
       </c>
       <c r="F18" s="15">
-        <v>358798</v>
+        <v>266419</v>
       </c>
       <c r="G18" s="15">
-        <v>266419</v>
+        <v>537567</v>
       </c>
       <c r="H18" s="15">
-        <v>537567</v>
+        <v>809763</v>
       </c>
       <c r="I18" s="15">
-        <v>809763</v>
+        <v>755215</v>
       </c>
       <c r="J18" s="15">
-        <v>755215</v>
+        <v>689791</v>
       </c>
       <c r="K18" s="15">
-        <v>689791</v>
+        <v>696901</v>
       </c>
       <c r="L18" s="15">
-        <v>696901</v>
+        <v>935563</v>
       </c>
       <c r="M18" s="15">
-        <v>935563</v>
+        <v>2459233</v>
       </c>
       <c r="N18" s="15">
-        <v>2459233</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2852431</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1223,108 +1223,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>50672</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>148132</v>
       </c>
       <c r="H19" s="11">
-        <v>148132</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>466934</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>494034</v>
       </c>
       <c r="K19" s="11">
-        <v>27100</v>
+        <v>812828</v>
       </c>
       <c r="L19" s="11">
-        <v>812828</v>
+        <v>907064</v>
       </c>
       <c r="M19" s="11">
-        <v>0</v>
+        <v>1211499</v>
       </c>
       <c r="N19" s="11">
-        <v>304435</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1315110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>7594</v>
+        <v>11143</v>
       </c>
       <c r="F20" s="9">
-        <v>11143</v>
+        <v>-148132</v>
       </c>
       <c r="G20" s="9">
-        <v>-97460</v>
+        <v>-219312</v>
       </c>
       <c r="H20" s="9">
-        <v>-219312</v>
+        <v>-247622</v>
       </c>
       <c r="I20" s="9">
-        <v>-247622</v>
+        <v>-494034</v>
       </c>
       <c r="J20" s="9">
-        <v>-27100</v>
+        <v>-812828</v>
       </c>
       <c r="K20" s="9">
-        <v>-812828</v>
+        <v>-907064</v>
       </c>
       <c r="L20" s="9">
-        <v>-907064</v>
+        <v>-1211499</v>
       </c>
       <c r="M20" s="9">
-        <v>-304435</v>
+        <v>-1315110</v>
       </c>
       <c r="N20" s="9">
-        <v>-1315110</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1850552</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>328174</v>
+        <v>369941</v>
       </c>
       <c r="F21" s="13">
-        <v>369941</v>
+        <v>168959</v>
       </c>
       <c r="G21" s="13">
-        <v>168959</v>
+        <v>466387</v>
       </c>
       <c r="H21" s="13">
-        <v>466387</v>
+        <v>562141</v>
       </c>
       <c r="I21" s="13">
-        <v>562141</v>
+        <v>728115</v>
       </c>
       <c r="J21" s="13">
-        <v>728115</v>
+        <v>370997</v>
       </c>
       <c r="K21" s="13">
-        <v>370997</v>
+        <v>602665</v>
       </c>
       <c r="L21" s="13">
-        <v>602665</v>
+        <v>631128</v>
       </c>
       <c r="M21" s="13">
-        <v>631128</v>
+        <v>2355622</v>
       </c>
       <c r="N21" s="13">
-        <v>2355622</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2316989</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1361,44 +1361,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>328174</v>
+        <v>369941</v>
       </c>
       <c r="F23" s="13">
-        <v>369941</v>
+        <v>168959</v>
       </c>
       <c r="G23" s="13">
-        <v>168959</v>
+        <v>466387</v>
       </c>
       <c r="H23" s="13">
-        <v>466387</v>
+        <v>562141</v>
       </c>
       <c r="I23" s="13">
-        <v>562141</v>
+        <v>728115</v>
       </c>
       <c r="J23" s="13">
-        <v>728115</v>
+        <v>370997</v>
       </c>
       <c r="K23" s="13">
-        <v>370997</v>
+        <v>602665</v>
       </c>
       <c r="L23" s="13">
-        <v>602665</v>
+        <v>631128</v>
       </c>
       <c r="M23" s="13">
-        <v>631128</v>
+        <v>2355622</v>
       </c>
       <c r="N23" s="13">
-        <v>2355622</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2316989</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1413,7 +1413,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1428,7 +1428,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1443,7 +1443,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1495,7 +1495,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1504,74 +1504,74 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>981837</v>
+        <v>898000</v>
       </c>
       <c r="F29" s="9">
-        <v>898000</v>
+        <v>1178773</v>
       </c>
       <c r="G29" s="9">
-        <v>1178773</v>
+        <v>997225</v>
       </c>
       <c r="H29" s="9">
-        <v>997225</v>
+        <v>928196</v>
       </c>
       <c r="I29" s="9">
-        <v>928196</v>
+        <v>1305325</v>
       </c>
       <c r="J29" s="9">
-        <v>1305325</v>
+        <v>1873938</v>
       </c>
       <c r="K29" s="9">
-        <v>1873938</v>
+        <v>1507312</v>
       </c>
       <c r="L29" s="9">
-        <v>1507312</v>
+        <v>1361373</v>
       </c>
       <c r="M29" s="9">
-        <v>1361373</v>
+        <v>1230998</v>
       </c>
       <c r="N29" s="9">
-        <v>1230998</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1172975</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>981837</v>
+        <v>898000</v>
       </c>
       <c r="F30" s="13">
-        <v>898000</v>
+        <v>1178773</v>
       </c>
       <c r="G30" s="13">
-        <v>1178773</v>
+        <v>997225</v>
       </c>
       <c r="H30" s="13">
-        <v>997225</v>
+        <v>928196</v>
       </c>
       <c r="I30" s="13">
-        <v>928196</v>
+        <v>1305325</v>
       </c>
       <c r="J30" s="13">
-        <v>1305325</v>
+        <v>1873938</v>
       </c>
       <c r="K30" s="13">
-        <v>1873938</v>
+        <v>1507312</v>
       </c>
       <c r="L30" s="13">
-        <v>1507312</v>
+        <v>1361373</v>
       </c>
       <c r="M30" s="13">
-        <v>1361373</v>
+        <v>1230998</v>
       </c>
       <c r="N30" s="13">
-        <v>1230998</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1172975</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1586,7 +1586,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1601,7 +1601,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1616,7 +1616,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>31</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1668,7 +1668,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>29</v>
       </c>
@@ -1677,74 +1677,74 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>411642</v>
+        <v>1222408</v>
       </c>
       <c r="F36" s="9">
-        <v>1222408</v>
+        <v>655624</v>
       </c>
       <c r="G36" s="9">
-        <v>655624</v>
+        <v>478667</v>
       </c>
       <c r="H36" s="9">
-        <v>478667</v>
+        <v>617536</v>
       </c>
       <c r="I36" s="9">
-        <v>617536</v>
+        <v>706944</v>
       </c>
       <c r="J36" s="9">
-        <v>706944</v>
+        <v>2441558</v>
       </c>
       <c r="K36" s="9">
-        <v>2441558</v>
+        <v>659591</v>
       </c>
       <c r="L36" s="9">
-        <v>659591</v>
+        <v>294901</v>
       </c>
       <c r="M36" s="9">
-        <v>294901</v>
+        <v>639074</v>
       </c>
       <c r="N36" s="9">
-        <v>639074</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>352402</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>411642</v>
+        <v>1222408</v>
       </c>
       <c r="F37" s="13">
-        <v>1222408</v>
+        <v>655624</v>
       </c>
       <c r="G37" s="13">
-        <v>655624</v>
+        <v>478667</v>
       </c>
       <c r="H37" s="13">
-        <v>478667</v>
+        <v>617536</v>
       </c>
       <c r="I37" s="13">
-        <v>617536</v>
+        <v>706944</v>
       </c>
       <c r="J37" s="13">
-        <v>706944</v>
+        <v>2441558</v>
       </c>
       <c r="K37" s="13">
-        <v>2441558</v>
+        <v>659591</v>
       </c>
       <c r="L37" s="13">
-        <v>659591</v>
+        <v>294901</v>
       </c>
       <c r="M37" s="13">
-        <v>294901</v>
+        <v>639074</v>
       </c>
       <c r="N37" s="13">
-        <v>639074</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>352402</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1759,7 +1759,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1774,7 +1774,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1789,7 +1789,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1841,7 +1841,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>29</v>
       </c>
@@ -1850,74 +1850,74 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>495479</v>
+        <v>941635</v>
       </c>
       <c r="F43" s="9">
-        <v>941635</v>
+        <v>837172</v>
       </c>
       <c r="G43" s="9">
-        <v>837172</v>
+        <v>547696</v>
       </c>
       <c r="H43" s="9">
-        <v>547696</v>
+        <v>240407</v>
       </c>
       <c r="I43" s="9">
-        <v>240407</v>
+        <v>138331</v>
       </c>
       <c r="J43" s="9">
-        <v>138331</v>
+        <v>2808184</v>
       </c>
       <c r="K43" s="9">
-        <v>2808184</v>
+        <v>805530</v>
       </c>
       <c r="L43" s="9">
-        <v>805530</v>
+        <v>425276</v>
       </c>
       <c r="M43" s="9">
-        <v>425276</v>
+        <v>697097</v>
       </c>
       <c r="N43" s="9">
-        <v>697097</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>472524</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>495479</v>
+        <v>941635</v>
       </c>
       <c r="F44" s="13">
-        <v>941635</v>
+        <v>837172</v>
       </c>
       <c r="G44" s="13">
-        <v>837172</v>
+        <v>547696</v>
       </c>
       <c r="H44" s="13">
-        <v>547696</v>
+        <v>240407</v>
       </c>
       <c r="I44" s="13">
-        <v>240407</v>
+        <v>138331</v>
       </c>
       <c r="J44" s="13">
-        <v>138331</v>
+        <v>2808184</v>
       </c>
       <c r="K44" s="13">
-        <v>2808184</v>
+        <v>805530</v>
       </c>
       <c r="L44" s="13">
-        <v>805530</v>
+        <v>425276</v>
       </c>
       <c r="M44" s="13">
-        <v>425276</v>
+        <v>697097</v>
       </c>
       <c r="N44" s="13">
-        <v>697097</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>472524</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1932,7 +1932,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1947,7 +1947,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1962,7 +1962,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>33</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2014,7 +2014,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>29</v>
       </c>
@@ -2023,74 +2023,74 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>898000</v>
+        <v>1178773</v>
       </c>
       <c r="F50" s="9">
-        <v>1178773</v>
+        <v>997225</v>
       </c>
       <c r="G50" s="9">
-        <v>997225</v>
+        <v>928196</v>
       </c>
       <c r="H50" s="9">
-        <v>928196</v>
+        <v>1305325</v>
       </c>
       <c r="I50" s="9">
-        <v>1305325</v>
+        <v>1873938</v>
       </c>
       <c r="J50" s="9">
-        <v>1873938</v>
+        <v>1507312</v>
       </c>
       <c r="K50" s="9">
-        <v>1507312</v>
+        <v>1361373</v>
       </c>
       <c r="L50" s="9">
-        <v>1361373</v>
+        <v>1230998</v>
       </c>
       <c r="M50" s="9">
-        <v>1230998</v>
+        <v>1172975</v>
       </c>
       <c r="N50" s="9">
-        <v>1172975</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1052853</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>898000</v>
+        <v>1178773</v>
       </c>
       <c r="F51" s="13">
-        <v>1178773</v>
+        <v>997225</v>
       </c>
       <c r="G51" s="13">
-        <v>997225</v>
+        <v>928196</v>
       </c>
       <c r="H51" s="13">
-        <v>928196</v>
+        <v>1305325</v>
       </c>
       <c r="I51" s="13">
-        <v>1305325</v>
+        <v>1873938</v>
       </c>
       <c r="J51" s="13">
-        <v>1873938</v>
+        <v>1507312</v>
       </c>
       <c r="K51" s="13">
-        <v>1507312</v>
+        <v>1361373</v>
       </c>
       <c r="L51" s="13">
-        <v>1361373</v>
+        <v>1230998</v>
       </c>
       <c r="M51" s="13">
-        <v>1230998</v>
+        <v>1172975</v>
       </c>
       <c r="N51" s="13">
-        <v>1172975</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1052853</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2105,7 +2105,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2120,7 +2120,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2135,7 +2135,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>34</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2187,7 +2187,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>29</v>
       </c>
@@ -2196,74 +2196,74 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>304151</v>
+        <v>249490</v>
       </c>
       <c r="F57" s="9">
-        <v>249490</v>
+        <v>389436</v>
       </c>
       <c r="G57" s="9">
-        <v>389436</v>
+        <v>501833</v>
       </c>
       <c r="H57" s="9">
-        <v>501833</v>
+        <v>476267</v>
       </c>
       <c r="I57" s="9">
-        <v>476267</v>
+        <v>668471</v>
       </c>
       <c r="J57" s="9">
-        <v>668471</v>
+        <v>616057</v>
       </c>
       <c r="K57" s="9">
-        <v>616057</v>
+        <v>794193</v>
       </c>
       <c r="L57" s="9">
-        <v>794193</v>
+        <v>782832</v>
       </c>
       <c r="M57" s="9">
-        <v>782832</v>
+        <v>1161994</v>
       </c>
       <c r="N57" s="9">
-        <v>1161994</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1683262</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>304151</v>
+        <v>249490</v>
       </c>
       <c r="F58" s="13">
-        <v>249490</v>
+        <v>389436</v>
       </c>
       <c r="G58" s="13">
-        <v>389436</v>
+        <v>501833</v>
       </c>
       <c r="H58" s="13">
-        <v>501833</v>
+        <v>476267</v>
       </c>
       <c r="I58" s="13">
-        <v>476267</v>
+        <v>668471</v>
       </c>
       <c r="J58" s="13">
-        <v>668471</v>
+        <v>616057</v>
       </c>
       <c r="K58" s="13">
-        <v>616057</v>
+        <v>794193</v>
       </c>
       <c r="L58" s="13">
-        <v>794193</v>
+        <v>782832</v>
       </c>
       <c r="M58" s="13">
-        <v>782832</v>
+        <v>1161994</v>
       </c>
       <c r="N58" s="13">
-        <v>1161994</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1683262</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2278,7 +2278,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2293,7 +2293,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2308,7 +2308,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2360,7 +2360,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>29</v>
       </c>
@@ -2369,74 +2369,74 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>182458</v>
+        <v>406674</v>
       </c>
       <c r="F64" s="9">
-        <v>406674</v>
+        <v>358046</v>
       </c>
       <c r="G64" s="9">
-        <v>358046</v>
+        <v>324872</v>
       </c>
       <c r="H64" s="9">
-        <v>324872</v>
+        <v>777819</v>
       </c>
       <c r="I64" s="9">
-        <v>777819</v>
+        <v>558617</v>
       </c>
       <c r="J64" s="9">
-        <v>558617</v>
+        <v>666811</v>
       </c>
       <c r="K64" s="9">
-        <v>666811</v>
+        <v>472312</v>
       </c>
       <c r="L64" s="9">
-        <v>472312</v>
+        <v>1057296</v>
       </c>
       <c r="M64" s="9">
-        <v>1057296</v>
+        <v>2266057</v>
       </c>
       <c r="N64" s="9">
-        <v>2266057</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2525242</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>182458</v>
+        <v>406674</v>
       </c>
       <c r="F65" s="13">
-        <v>406674</v>
+        <v>358046</v>
       </c>
       <c r="G65" s="13">
-        <v>358046</v>
+        <v>324872</v>
       </c>
       <c r="H65" s="13">
-        <v>324872</v>
+        <v>777819</v>
       </c>
       <c r="I65" s="13">
-        <v>777819</v>
+        <v>558617</v>
       </c>
       <c r="J65" s="13">
-        <v>558617</v>
+        <v>666811</v>
       </c>
       <c r="K65" s="13">
-        <v>666811</v>
+        <v>472312</v>
       </c>
       <c r="L65" s="13">
-        <v>472312</v>
+        <v>1057296</v>
       </c>
       <c r="M65" s="13">
-        <v>1057296</v>
+        <v>2266057</v>
       </c>
       <c r="N65" s="13">
-        <v>2266057</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2525242</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2451,7 +2451,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2466,7 +2466,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2481,7 +2481,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>37</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2533,7 +2533,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
@@ -2542,74 +2542,74 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>237119</v>
+        <v>266728</v>
       </c>
       <c r="F71" s="9">
-        <v>266728</v>
+        <v>245649</v>
       </c>
       <c r="G71" s="9">
-        <v>245649</v>
+        <v>350438</v>
       </c>
       <c r="H71" s="9">
-        <v>350438</v>
+        <v>585615</v>
       </c>
       <c r="I71" s="9">
-        <v>585615</v>
+        <v>611031</v>
       </c>
       <c r="J71" s="9">
-        <v>611031</v>
+        <v>488675</v>
       </c>
       <c r="K71" s="9">
-        <v>488675</v>
+        <v>483673</v>
       </c>
       <c r="L71" s="9">
-        <v>483673</v>
+        <v>678134</v>
       </c>
       <c r="M71" s="9">
-        <v>678134</v>
+        <v>1744789</v>
       </c>
       <c r="N71" s="9">
-        <v>1744789</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3103074</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>237119</v>
+        <v>266728</v>
       </c>
       <c r="F72" s="13">
-        <v>266728</v>
+        <v>245649</v>
       </c>
       <c r="G72" s="13">
-        <v>245649</v>
+        <v>350438</v>
       </c>
       <c r="H72" s="13">
-        <v>350438</v>
+        <v>585615</v>
       </c>
       <c r="I72" s="13">
-        <v>585615</v>
+        <v>611031</v>
       </c>
       <c r="J72" s="13">
-        <v>611031</v>
+        <v>488675</v>
       </c>
       <c r="K72" s="13">
-        <v>488675</v>
+        <v>483673</v>
       </c>
       <c r="L72" s="13">
-        <v>483673</v>
+        <v>678134</v>
       </c>
       <c r="M72" s="13">
-        <v>678134</v>
+        <v>1744789</v>
       </c>
       <c r="N72" s="13">
-        <v>1744789</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3103074</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2624,7 +2624,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2639,7 +2639,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2654,7 +2654,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>38</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2706,7 +2706,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>29</v>
       </c>
@@ -2715,74 +2715,74 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>249490</v>
+        <v>389436</v>
       </c>
       <c r="F78" s="9">
-        <v>389436</v>
+        <v>501833</v>
       </c>
       <c r="G78" s="9">
-        <v>501833</v>
+        <v>476267</v>
       </c>
       <c r="H78" s="9">
-        <v>476267</v>
+        <v>668471</v>
       </c>
       <c r="I78" s="9">
-        <v>668471</v>
+        <v>616057</v>
       </c>
       <c r="J78" s="9">
-        <v>616057</v>
+        <v>794193</v>
       </c>
       <c r="K78" s="9">
-        <v>794193</v>
+        <v>782832</v>
       </c>
       <c r="L78" s="9">
-        <v>782832</v>
+        <v>1161994</v>
       </c>
       <c r="M78" s="9">
-        <v>1161994</v>
+        <v>1683262</v>
       </c>
       <c r="N78" s="9">
-        <v>1683262</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1105430</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>249490</v>
+        <v>389436</v>
       </c>
       <c r="F79" s="13">
-        <v>389436</v>
+        <v>501833</v>
       </c>
       <c r="G79" s="13">
-        <v>501833</v>
+        <v>476267</v>
       </c>
       <c r="H79" s="13">
-        <v>476267</v>
+        <v>668471</v>
       </c>
       <c r="I79" s="13">
-        <v>668471</v>
+        <v>616057</v>
       </c>
       <c r="J79" s="13">
-        <v>616057</v>
+        <v>794193</v>
       </c>
       <c r="K79" s="13">
-        <v>794193</v>
+        <v>782832</v>
       </c>
       <c r="L79" s="13">
-        <v>782832</v>
+        <v>1161994</v>
       </c>
       <c r="M79" s="13">
-        <v>1161994</v>
+        <v>1683262</v>
       </c>
       <c r="N79" s="13">
-        <v>1683262</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1105430</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2797,7 +2797,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2812,7 +2812,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2827,7 +2827,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>39</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2879,7 +2879,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
@@ -2888,37 +2888,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>309777</v>
+        <v>277829</v>
       </c>
       <c r="F85" s="9">
-        <v>277829</v>
+        <v>330374</v>
       </c>
       <c r="G85" s="9">
-        <v>330374</v>
+        <v>503229</v>
       </c>
       <c r="H85" s="9">
-        <v>503229</v>
+        <v>513110</v>
       </c>
       <c r="I85" s="9">
-        <v>513110</v>
+        <v>512111</v>
       </c>
       <c r="J85" s="9">
-        <v>512111</v>
+        <v>328750</v>
       </c>
       <c r="K85" s="9">
-        <v>328750</v>
+        <v>526894</v>
       </c>
       <c r="L85" s="9">
-        <v>526894</v>
+        <v>575031</v>
       </c>
       <c r="M85" s="9">
-        <v>575031</v>
+        <v>943945</v>
       </c>
       <c r="N85" s="9">
-        <v>943945</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1435037</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2933,7 +2933,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2948,7 +2948,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2963,7 +2963,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>41</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3015,7 +3015,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>29</v>
       </c>
@@ -3024,37 +3024,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>443244</v>
+        <v>332683</v>
       </c>
       <c r="F91" s="9">
-        <v>332683</v>
+        <v>546115</v>
       </c>
       <c r="G91" s="9">
-        <v>546115</v>
+        <v>678701</v>
       </c>
       <c r="H91" s="9">
-        <v>678701</v>
+        <v>1259552</v>
       </c>
       <c r="I91" s="9">
-        <v>1259552</v>
+        <v>790186</v>
       </c>
       <c r="J91" s="9">
-        <v>790186</v>
+        <v>273109</v>
       </c>
       <c r="K91" s="9">
-        <v>273109</v>
+        <v>716068</v>
       </c>
       <c r="L91" s="9">
-        <v>716068</v>
+        <v>3585257</v>
       </c>
       <c r="M91" s="9">
-        <v>3585257</v>
+        <v>3545844</v>
       </c>
       <c r="N91" s="9">
-        <v>3545844</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7165799</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3069,7 +3069,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3084,7 +3084,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3099,7 +3099,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>42</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3151,7 +3151,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>29</v>
       </c>
@@ -3160,37 +3160,37 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>478565</v>
+        <v>283261</v>
       </c>
       <c r="F97" s="9">
-        <v>283261</v>
+        <v>293427</v>
       </c>
       <c r="G97" s="9">
-        <v>293427</v>
+        <v>639840</v>
       </c>
       <c r="H97" s="9">
-        <v>639840</v>
+        <v>2435932</v>
       </c>
       <c r="I97" s="9">
-        <v>2435932</v>
+        <v>4417166</v>
       </c>
       <c r="J97" s="9">
-        <v>4417166</v>
+        <v>174018</v>
       </c>
       <c r="K97" s="9">
-        <v>174018</v>
+        <v>600441</v>
       </c>
       <c r="L97" s="9">
-        <v>600441</v>
+        <v>1594574</v>
       </c>
       <c r="M97" s="9">
-        <v>1594574</v>
+        <v>2502936</v>
       </c>
       <c r="N97" s="9">
-        <v>2502936</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6567019</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3205,7 +3205,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3220,7 +3220,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3235,7 +3235,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>43</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3287,7 +3287,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>29</v>
       </c>
@@ -3304,29 +3304,29 @@
       <c r="G103" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H103" s="9" t="s">
-        <v>44</v>
+      <c r="H103" s="9">
+        <v>512111</v>
       </c>
       <c r="I103" s="9">
-        <v>512111</v>
+        <v>328750</v>
       </c>
       <c r="J103" s="9">
-        <v>328750</v>
+        <v>526894</v>
       </c>
       <c r="K103" s="9">
-        <v>526894</v>
+        <v>575031</v>
       </c>
       <c r="L103" s="9">
-        <v>575031</v>
+        <v>943945</v>
       </c>
       <c r="M103" s="9">
-        <v>943945</v>
+        <v>1435037</v>
       </c>
       <c r="N103" s="9">
-        <v>1435037</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1049938</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3341,7 +3341,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3356,7 +3356,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3371,7 +3371,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>45</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3423,44 +3423,44 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="F109" s="9">
-        <v>269</v>
+        <v>1116</v>
       </c>
       <c r="G109" s="9">
-        <v>1116</v>
+        <v>387</v>
       </c>
       <c r="H109" s="9">
-        <v>387</v>
+        <v>859</v>
       </c>
       <c r="I109" s="9">
-        <v>859</v>
+        <v>2677</v>
       </c>
       <c r="J109" s="9">
-        <v>2677</v>
+        <v>2040</v>
       </c>
       <c r="K109" s="9">
-        <v>2040</v>
+        <v>2940</v>
       </c>
       <c r="L109" s="9">
-        <v>2940</v>
+        <v>3434</v>
       </c>
       <c r="M109" s="9">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="N109" s="9">
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>47</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>48</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>49</v>
       </c>
@@ -3559,167 +3559,167 @@
         <v>0</v>
       </c>
       <c r="K112" s="11">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="L112" s="11">
-        <v>104</v>
+        <v>-104</v>
       </c>
       <c r="M112" s="11">
-        <v>-104</v>
+        <v>241</v>
       </c>
       <c r="N112" s="11">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-241</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>6039</v>
+        <v>4751</v>
       </c>
       <c r="F113" s="9">
-        <v>4751</v>
+        <v>5969</v>
       </c>
       <c r="G113" s="9">
-        <v>5969</v>
+        <v>9953</v>
       </c>
       <c r="H113" s="9">
-        <v>9953</v>
+        <v>6072</v>
       </c>
       <c r="I113" s="9">
-        <v>6072</v>
+        <v>9911</v>
       </c>
       <c r="J113" s="9">
-        <v>9911</v>
+        <v>11986</v>
       </c>
       <c r="K113" s="9">
-        <v>11986</v>
+        <v>7406</v>
       </c>
       <c r="L113" s="9">
-        <v>7406</v>
+        <v>-1199</v>
       </c>
       <c r="M113" s="9">
-        <v>-1199</v>
+        <v>33330</v>
       </c>
       <c r="N113" s="9">
-        <v>33330</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28020</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>1440</v>
+        <v>1258</v>
       </c>
       <c r="F114" s="11">
-        <v>1258</v>
+        <v>1907</v>
       </c>
       <c r="G114" s="11">
-        <v>1907</v>
+        <v>1494</v>
       </c>
       <c r="H114" s="11">
-        <v>1494</v>
+        <v>2276</v>
       </c>
       <c r="I114" s="11">
-        <v>2276</v>
+        <v>3039</v>
       </c>
       <c r="J114" s="11">
-        <v>3039</v>
+        <v>5227</v>
       </c>
       <c r="K114" s="11">
-        <v>5227</v>
+        <v>2747</v>
       </c>
       <c r="L114" s="11">
-        <v>2747</v>
+        <v>3528</v>
       </c>
       <c r="M114" s="11">
-        <v>3528</v>
+        <v>2843</v>
       </c>
       <c r="N114" s="11">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>4159</v>
+        <v>4375</v>
       </c>
       <c r="F115" s="9">
-        <v>4375</v>
+        <v>5628</v>
       </c>
       <c r="G115" s="9">
-        <v>5628</v>
+        <v>7161</v>
       </c>
       <c r="H115" s="9">
-        <v>7161</v>
+        <v>7631</v>
       </c>
       <c r="I115" s="9">
-        <v>7631</v>
+        <v>7583</v>
       </c>
       <c r="J115" s="9">
-        <v>7583</v>
+        <v>7733</v>
       </c>
       <c r="K115" s="9">
-        <v>7733</v>
+        <v>5347</v>
       </c>
       <c r="L115" s="9">
-        <v>5347</v>
+        <v>11000</v>
       </c>
       <c r="M115" s="9">
-        <v>11000</v>
+        <v>8208</v>
       </c>
       <c r="N115" s="9">
-        <v>8208</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9618</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>37701</v>
+        <v>39302</v>
       </c>
       <c r="F116" s="11">
-        <v>39302</v>
+        <v>47966</v>
       </c>
       <c r="G116" s="11">
-        <v>47966</v>
+        <v>76245</v>
       </c>
       <c r="H116" s="11">
-        <v>76245</v>
+        <v>52162</v>
       </c>
       <c r="I116" s="11">
-        <v>52162</v>
+        <v>51069</v>
       </c>
       <c r="J116" s="11">
-        <v>51069</v>
+        <v>80425</v>
       </c>
       <c r="K116" s="11">
-        <v>80425</v>
+        <v>116123</v>
       </c>
       <c r="L116" s="11">
-        <v>116123</v>
+        <v>6379</v>
       </c>
       <c r="M116" s="11">
-        <v>6379</v>
+        <v>105326</v>
       </c>
       <c r="N116" s="11">
-        <v>105326</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>146547</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>54</v>
       </c>
@@ -3756,81 +3756,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>14494</v>
+        <v>27829</v>
       </c>
       <c r="F118" s="11">
-        <v>27829</v>
+        <v>67164</v>
       </c>
       <c r="G118" s="11">
-        <v>67164</v>
+        <v>26777</v>
       </c>
       <c r="H118" s="11">
-        <v>26777</v>
+        <v>52136</v>
       </c>
       <c r="I118" s="11">
-        <v>52136</v>
+        <v>51215</v>
       </c>
       <c r="J118" s="11">
-        <v>51215</v>
+        <v>114398</v>
       </c>
       <c r="K118" s="11">
-        <v>114398</v>
+        <v>60785</v>
       </c>
       <c r="L118" s="11">
-        <v>60785</v>
+        <v>165874</v>
       </c>
       <c r="M118" s="11">
-        <v>165874</v>
+        <v>41972</v>
       </c>
       <c r="N118" s="11">
-        <v>41972</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>58126</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>63989</v>
+        <v>77784</v>
       </c>
       <c r="F119" s="15">
-        <v>77784</v>
+        <v>129750</v>
       </c>
       <c r="G119" s="15">
-        <v>129750</v>
+        <v>122017</v>
       </c>
       <c r="H119" s="15">
-        <v>122017</v>
+        <v>121136</v>
       </c>
       <c r="I119" s="15">
-        <v>121136</v>
+        <v>125494</v>
       </c>
       <c r="J119" s="15">
-        <v>125494</v>
+        <v>221809</v>
       </c>
       <c r="K119" s="15">
-        <v>221809</v>
+        <v>195452</v>
       </c>
       <c r="L119" s="15">
-        <v>195452</v>
+        <v>188912</v>
       </c>
       <c r="M119" s="15">
-        <v>188912</v>
+        <v>195352</v>
       </c>
       <c r="N119" s="15">
-        <v>195352</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>250091</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3845,7 +3845,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3860,7 +3860,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3875,7 +3875,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>56</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3907,7 +3907,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>57</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>59</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>61</v>
       </c>
@@ -3964,7 +3964,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>63</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>65</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>67</v>
       </c>
@@ -3997,7 +3997,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>69</v>
       </c>
@@ -4008,7 +4008,7 @@
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>71</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>65</v>
       </c>
@@ -4030,7 +4030,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>67</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>73</v>
       </c>
@@ -4052,7 +4052,7 @@
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>74</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>63</v>
       </c>
@@ -4074,7 +4074,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>76</v>
       </c>
